--- a/EMIS_strings.xlsx
+++ b/EMIS_strings.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="473">
   <si>
     <t xml:space="preserve">EMIS_string</t>
   </si>
@@ -1333,6 +1333,9 @@
   </si>
   <si>
     <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">times</t>
   </si>
   <si>
     <t xml:space="preserve">0NE 5ML SPOONFUL </t>
@@ -1447,7 +1450,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1469,12 +1472,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1528,7 +1525,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1552,9 +1549,9 @@
   <dimension ref="A1:W400"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
+      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7592,10 +7589,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
+      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7655,10 +7652,13 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="0" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>5</v>
@@ -7678,14 +7678,10 @@
       <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="1" t="n">
-        <f aca="false">COLUMN(O1)</f>
-        <v>15</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
@@ -7708,7 +7704,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>1</v>
@@ -7721,7 +7717,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>1.25</v>
@@ -7735,7 +7731,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>2.5</v>
@@ -7746,7 +7742,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>3.75</v>
@@ -7757,7 +7753,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>15</v>
@@ -7768,7 +7764,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>40</v>
@@ -7795,7 +7791,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>1</v>
@@ -7809,7 +7805,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>1</v>
@@ -7823,7 +7819,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>2</v>
@@ -7837,7 +7833,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>3</v>
@@ -7851,7 +7847,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>4</v>
@@ -7865,7 +7861,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>5</v>
@@ -7907,7 +7903,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>5</v>
@@ -7918,7 +7914,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>7</v>
@@ -7929,7 +7925,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>27</v>
@@ -7937,7 +7933,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>10</v>
@@ -7948,7 +7944,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>29</v>
@@ -7956,7 +7952,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>37</v>
@@ -7967,7 +7963,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>44</v>
@@ -7987,7 +7983,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>47</v>
@@ -8007,7 +8003,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>91</v>
@@ -8038,7 +8034,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>1</v>
@@ -8066,7 +8062,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>5</v>
@@ -8077,7 +8073,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>4</v>
@@ -8088,7 +8084,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>4</v>
@@ -8099,7 +8095,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>4</v>
@@ -8110,7 +8106,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>0.5</v>
@@ -8121,15 +8117,15 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>1</v>
@@ -8140,7 +8136,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>2</v>
@@ -8151,7 +8147,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>3</v>
@@ -8182,7 +8178,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8241,7 +8237,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2" s="1" t="n">
